--- a/biology/Médecine/Ludwig_Edinger/Ludwig_Edinger.xlsx
+++ b/biology/Médecine/Ludwig_Edinger/Ludwig_Edinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Edinger, né le  13 avril 1855 à Worms, mort le 26 janvier 1918 à Francfort, est un médecin anatomiste et neurologue de la fin du XIXe et du début du XXe siècle. Lié à l'université de Francfort, il fut en  1914 le premier professeur allemand de neurologie et le fondateur de la neuroanatomie comparée.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edinger grandit à Worms où son père jouissait d'une situation avantageuse comme négociant en textiles, et était également membre démocrate du Congrès au parlement d'État de Hesse-Darmstadt. Il n'éprouvait pas de honte d'avoir commencé sa carrière dans la pauvreté et proposa, sans succès, la gratuité de l'enseignement pour tous les enfants en 1873. La mère de Ludwig Edinger était la fille d'un médecin de Karlsruhe. 
 Il fit ses études de médecine de 1872 à 1877 à l'Université de Heidelberg et à celle de Strasbourg. Il commença à s'intéresser à la neurologie alors qu'il était médecin assistant à l'Université de Giessen (1877- 1882) et consacra son travail d'habilitation de privatdozent de 1881 à ses recherches dans ce domaine. Il alla ensuite exercer à Berlin, Leipzig et Paris avant d'ouvrir son propre cabinet de neurologie Francfort en 1883. 
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Edinger a rédigé un ouvrage autobiographique relatant sa carrière :
 (de) Mein Lebensgang. Erinnerungen eines Frankfurter Arztes und Hirnforschers, Kramer, Oberursel 2005,  (ISBN 3-7829-0561-X)</t>
